--- a/GoogleMaps/all_datas.xlsx
+++ b/GoogleMaps/all_datas.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Plaza Dent</t>
+          <t>SMILE AVENUE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strada Gheorghe Rostogolea 1, București 061344</t>
+          <t>Drumul Fermei 92, Popești-Leordeni 077160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +488,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>021 413 0015</t>
+          <t>0799 548 484</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>642</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>plazadent.ro</t>
+          <t>smileavenue.ro</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SMILE AVENUE</t>
+          <t>Eliance Dent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drumul Fermei 92, Popești-Leordeni 077160</t>
+          <t>Strada Plantelor 22, București 023974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,29 +525,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0799 548 484</t>
+          <t>0749 768 848</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>smileavenue.ro</t>
+          <t>eliancedent.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ValFamilyDent - Cabinet Stomatologic Berceni, Sector 4. Implant Dentar Sector 4</t>
+          <t>World Dentistry Clinic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -557,7 +557,11 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
